--- a/Projects teams.xlsx
+++ b/Projects teams.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\in progress 2\Data mining\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\in progress 2\Data mining\project\Data-Mining-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939D2A0D-EE31-47A0-9BEA-58CBE935C0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E51178-8742-47D0-99BB-FDE8C4CC0C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,7 +914,7 @@
       <c r="E8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1240,8 +1240,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" xr:uid="{A21AD203-6F80-4FA1-A207-32BB9F3E0D5C}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{1A2898E2-9F84-4C9B-9DDF-6E04B90EBD9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>